--- a/VD_nais_einheiten_unique_v2_20250408.xlsx
+++ b/VD_nais_einheiten_unique_v2_20250408.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCW24sensi\VD_Herbst_anfragen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5CB376A-026D-4BD6-A6E4-0A086247B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81248C4F-7F28-4D15-99AD-5B7C59F0CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53685" yWindow="4125" windowWidth="19215" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$121</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="156">
   <si>
     <t>VD Einheit</t>
   </si>
@@ -44,9 +44,6 @@
     <t>NaiS_LFI</t>
   </si>
   <si>
-    <t>tahs</t>
-  </si>
-  <si>
     <t>7f</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>hs Üb.g.</t>
-  </si>
-  <si>
     <t>Bemerkung bh</t>
   </si>
   <si>
@@ -501,6 +495,15 @@
   </si>
   <si>
     <t>66L</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>hsue</t>
   </si>
 </sst>
 </file>
@@ -891,12 +894,15 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,1729 +910,1729 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1339</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3408</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7978</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>36472</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>14678</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4100</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8366</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16669</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>31990</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>824421</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4939</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15821</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5544</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14649</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>755106</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>85940</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>216</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>86234</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>85939</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5248</v>
       </c>
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>49161</v>
       </c>
       <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37110</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6641</v>
       </c>
       <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>760951</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36862</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>33546</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>352478</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
         <v>68</v>
       </c>
-      <c r="D40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>14616</v>
       </c>
       <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
         <v>67</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>68</v>
       </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
       <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>23052</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>668868</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>318</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>290</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5350</v>
       </c>
       <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>288</v>
       </c>
       <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>25283</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1318712</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1387</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49827</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51404</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1318575</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>113743</v>
       </c>
       <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>696985</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2493</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>19010</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>761861</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>23441</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3781</v>
       </c>
       <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
         <v>49</v>
       </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>386</v>
       </c>
       <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
         <v>37</v>
       </c>
-      <c r="C62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1388</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>81416</v>
       </c>
       <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
         <v>101</v>
       </c>
-      <c r="C64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>20</v>
       </c>
       <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
         <v>15</v>
       </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>194140</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>801537</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1316792</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>38388</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1316708</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>173</v>
       </c>
       <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
         <v>23</v>
       </c>
-      <c r="C72" t="s">
-        <v>24</v>
-      </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>470449</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>662440</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>196314</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>170</v>
       </c>
       <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
         <v>20</v>
       </c>
-      <c r="C77" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>684139</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>659342</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>94459</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>56644</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>684142</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>655037</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>669813</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>660843</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>655038</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1318215</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>414</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44851</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>659821</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>50417</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>654842</v>
       </c>
       <c r="B94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" t="s">
         <v>115</v>
       </c>
-      <c r="C94" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>665134</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>37264</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>93391</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>56991</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>705148</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1318367</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>103542</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>641956</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>998761</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>57133</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>678095</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>439</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>23329</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0</v>
       </c>
       <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
         <v>3</v>
       </c>
-      <c r="C109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>446</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>4004</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>4034</v>
       </c>
       <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" t="s">
         <v>52</v>
       </c>
-      <c r="C112" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>4337</v>
       </c>
       <c r="B113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D113" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>15478</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D114" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>16499</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3977</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>37111</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>3164</v>
       </c>
       <c r="B119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>176</v>
       </c>
       <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
         <v>25</v>
       </c>
-      <c r="C120" t="s">
-        <v>25</v>
-      </c>
-      <c r="D120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>663182</v>
       </c>
       <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
         <v>123</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>124</v>
-      </c>
-      <c r="D121" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/VD_nais_einheiten_unique_v2_20250408.xlsx
+++ b/VD_nais_einheiten_unique_v2_20250408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81248C4F-7F28-4D15-99AD-5B7C59F0CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200085B-12EE-42C5-86A8-7F5C60F06507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53685" yWindow="4125" windowWidth="19215" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52140" yWindow="810" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>9a</t>
   </si>
   <si>
-    <t>sm, co</t>
-  </si>
-  <si>
     <t>10a</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>46</t>
   </si>
   <si>
-    <t>om, hm</t>
-  </si>
-  <si>
     <t>18w</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>AV</t>
   </si>
   <si>
-    <t>hm, sa</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
@@ -137,21 +128,12 @@
     <t>29A</t>
   </si>
   <si>
-    <t>sm, um, om, co</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
-    <t>sm, um, co</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>sm, om, um, co</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>41*</t>
   </si>
   <si>
-    <t>sm, um</t>
-  </si>
-  <si>
     <t>8a</t>
   </si>
   <si>
@@ -212,24 +191,15 @@
     <t>22</t>
   </si>
   <si>
-    <t>om, sm, um</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>sm, co, um</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>hm, om, sa</t>
-  </si>
-  <si>
     <t>12a</t>
   </si>
   <si>
@@ -242,15 +212,9 @@
     <t>26</t>
   </si>
   <si>
-    <t>um, sm, co</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>um, om, sm</t>
-  </si>
-  <si>
     <t>12e</t>
   </si>
   <si>
@@ -260,9 +224,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>um, sm</t>
-  </si>
-  <si>
     <t>8f</t>
   </si>
   <si>
@@ -314,9 +275,6 @@
     <t>22A</t>
   </si>
   <si>
-    <t>om, um</t>
-  </si>
-  <si>
     <t>32C</t>
   </si>
   <si>
@@ -332,18 +290,12 @@
     <t>67</t>
   </si>
   <si>
-    <t>om, hm, sa</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>um, om</t>
-  </si>
-  <si>
     <t>20(48)</t>
   </si>
   <si>
@@ -377,9 +329,6 @@
     <t>69G</t>
   </si>
   <si>
-    <t>sa, hm</t>
-  </si>
-  <si>
     <t>60A</t>
   </si>
   <si>
@@ -410,9 +359,6 @@
     <t>k.A.</t>
   </si>
   <si>
-    <t>hm, om, um, sm</t>
-  </si>
-  <si>
     <t>60E</t>
   </si>
   <si>
@@ -485,9 +431,6 @@
     <t>entwässerte Flächen</t>
   </si>
   <si>
-    <t>um, sm, om</t>
-  </si>
-  <si>
     <t>51(48)</t>
   </si>
   <si>
@@ -504,6 +447,63 @@
   </si>
   <si>
     <t>hsue</t>
+  </si>
+  <si>
+    <t>sm um</t>
+  </si>
+  <si>
+    <t>um sm</t>
+  </si>
+  <si>
+    <t>um om sm</t>
+  </si>
+  <si>
+    <t>om sm um</t>
+  </si>
+  <si>
+    <t>om um</t>
+  </si>
+  <si>
+    <t>hm om sa</t>
+  </si>
+  <si>
+    <t>om hm</t>
+  </si>
+  <si>
+    <t>um sm co</t>
+  </si>
+  <si>
+    <t>sa hm</t>
+  </si>
+  <si>
+    <t>sm um co</t>
+  </si>
+  <si>
+    <t>sm co</t>
+  </si>
+  <si>
+    <t>sm co um</t>
+  </si>
+  <si>
+    <t>sm um om co</t>
+  </si>
+  <si>
+    <t>sm om um co</t>
+  </si>
+  <si>
+    <t>um om</t>
+  </si>
+  <si>
+    <t>hm sa</t>
+  </si>
+  <si>
+    <t>um sm om</t>
+  </si>
+  <si>
+    <t>om hm sa</t>
+  </si>
+  <si>
+    <t>hm om um sm</t>
   </si>
 </sst>
 </file>
@@ -894,14 +894,14 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,13 +924,13 @@
         <v>1339</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -952,10 +952,10 @@
         <v>3408</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -966,10 +966,10 @@
         <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>7978</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,13 +994,13 @@
         <v>36472</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,13 +1008,13 @@
         <v>14678</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,13 +1022,13 @@
         <v>4100</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,13 +1036,13 @@
         <v>8366</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,13 +1050,13 @@
         <v>16669</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,13 +1064,13 @@
         <v>31990</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1078,13 +1078,13 @@
         <v>824421</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,13 +1092,13 @@
         <v>4939</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,13 +1106,13 @@
         <v>15821</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1120,10 +1120,10 @@
         <v>5544</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -1134,13 +1134,13 @@
         <v>14649</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,13 +1148,13 @@
         <v>755106</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,13 +1162,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,19 +1176,19 @@
         <v>85940</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1196,13 +1196,13 @@
         <v>216</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,13 +1210,13 @@
         <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,13 +1224,13 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,13 +1238,13 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,19 +1266,19 @@
         <v>86234</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,13 +1286,13 @@
         <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,13 +1300,13 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,19 +1328,19 @@
         <v>85939</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>5248</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>49161</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,13 +1390,13 @@
         <v>37110</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,13 +1404,13 @@
         <v>6641</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>760951</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1446,13 @@
         <v>36862</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>33546</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,13 +1474,13 @@
         <v>352478</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,13 +1488,13 @@
         <v>14616</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,13 +1502,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
         <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,13 +1516,13 @@
         <v>23052</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,13 +1530,13 @@
         <v>668868</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,13 +1544,13 @@
         <v>318</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,13 +1558,13 @@
         <v>290</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,13 +1572,13 @@
         <v>5350</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,13 +1586,13 @@
         <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,10 +1600,10 @@
         <v>25283</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -1614,13 +1614,13 @@
         <v>1318712</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,13 +1628,13 @@
         <v>1387</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,13 +1642,13 @@
         <v>49827</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,13 +1656,13 @@
         <v>51404</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,13 +1670,13 @@
         <v>1318575</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,13 +1684,13 @@
         <v>113743</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
         <v>696985</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,13 +1712,13 @@
         <v>2493</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,13 +1726,13 @@
         <v>19010</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,13 +1740,13 @@
         <v>761861</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,13 +1754,13 @@
         <v>23441</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,13 +1768,13 @@
         <v>3781</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,13 +1782,13 @@
         <v>386</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,13 +1796,13 @@
         <v>1388</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,13 +1810,13 @@
         <v>81416</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,13 +1824,13 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,19 +1838,19 @@
         <v>194140</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,13 +1858,13 @@
         <v>801537</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,13 +1872,13 @@
         <v>1316792</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,13 +1886,13 @@
         <v>38388</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,13 +1900,13 @@
         <v>1316708</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,13 +1914,13 @@
         <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,19 +1928,19 @@
         <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,13 +1948,13 @@
         <v>470449</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
         <v>662440</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,13 +1976,13 @@
         <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1990,19 +1990,19 @@
         <v>196314</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2010,13 +2010,13 @@
         <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,13 +2024,13 @@
         <v>684139</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,13 +2038,13 @@
         <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,13 +2052,13 @@
         <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2066,13 +2066,13 @@
         <v>659342</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,13 +2080,13 @@
         <v>94459</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2094,13 +2094,13 @@
         <v>56644</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,13 +2108,13 @@
         <v>684142</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2122,13 +2122,13 @@
         <v>655037</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2136,13 +2136,13 @@
         <v>669813</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2150,13 +2150,13 @@
         <v>660843</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2164,13 +2164,13 @@
         <v>655038</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,13 +2178,13 @@
         <v>1318215</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,10 +2192,10 @@
         <v>414</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -2206,13 +2206,13 @@
         <v>44851</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,13 +2220,13 @@
         <v>659821</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,13 +2234,13 @@
         <v>50417</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,13 +2248,13 @@
         <v>654842</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,13 +2262,13 @@
         <v>665134</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2276,13 +2276,13 @@
         <v>37264</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,13 +2290,13 @@
         <v>93391</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,10 +2304,10 @@
         <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -2318,13 +2318,13 @@
         <v>56991</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,13 +2332,13 @@
         <v>705148</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,13 +2346,13 @@
         <v>1318367</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,13 +2360,13 @@
         <v>103542</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,13 +2374,13 @@
         <v>641956</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,13 +2388,13 @@
         <v>998761</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,13 +2402,13 @@
         <v>57133</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2416,13 +2416,13 @@
         <v>678095</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,10 +2430,10 @@
         <v>439</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -2444,10 +2444,10 @@
         <v>23329</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -2472,10 +2472,10 @@
         <v>446</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -2486,13 +2486,13 @@
         <v>4004</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,13 +2500,13 @@
         <v>4034</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D112" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,13 +2514,13 @@
         <v>4337</v>
       </c>
       <c r="B113" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,13 +2528,13 @@
         <v>15478</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2542,13 +2542,13 @@
         <v>16499</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,13 +2556,13 @@
         <v>3977</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>37111</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -2598,10 +2598,10 @@
         <v>3164</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2612,13 +2612,13 @@
         <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,13 +2626,13 @@
         <v>663182</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/VD_nais_einheiten_unique_v2_20250408.xlsx
+++ b/VD_nais_einheiten_unique_v2_20250408.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200085B-12EE-42C5-86A8-7F5C60F06507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99284E57-0E93-48A3-835F-4D0E41AB603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="810" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$121</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="159">
   <si>
     <t>VD Einheit</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>hm om um sm</t>
+  </si>
+  <si>
+    <t>nais</t>
+  </si>
+  <si>
+    <t>nais1</t>
+  </si>
+  <si>
+    <t>nais2</t>
   </si>
 </sst>
 </file>
@@ -891,15 +900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -910,16 +920,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1339</v>
       </c>
@@ -929,11 +948,19 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="str">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -943,11 +970,19 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:E66" si="0">C3</f>
+        <v>10a</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>10a</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3408</v>
       </c>
@@ -957,11 +992,19 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>10w</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>10w</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>415</v>
       </c>
@@ -971,11 +1014,19 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7978</v>
       </c>
@@ -985,11 +1036,19 @@
       <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>12a</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>12a</v>
+      </c>
+      <c r="G6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>36472</v>
       </c>
@@ -999,11 +1058,19 @@
       <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>12a</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>12a</v>
+      </c>
+      <c r="G7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>14678</v>
       </c>
@@ -1013,11 +1080,19 @@
       <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>12e</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>12e</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4100</v>
       </c>
@@ -1027,11 +1102,19 @@
       <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>12S</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>12S</v>
+      </c>
+      <c r="G9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8366</v>
       </c>
@@ -1041,11 +1124,19 @@
       <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>12w</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>12w</v>
+      </c>
+      <c r="G10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16669</v>
       </c>
@@ -1055,11 +1146,19 @@
       <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>13a</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>13a</v>
+      </c>
+      <c r="G11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>31990</v>
       </c>
@@ -1069,11 +1168,19 @@
       <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>13e</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>13e</v>
+      </c>
+      <c r="G12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>824421</v>
       </c>
@@ -1083,11 +1190,19 @@
       <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>13eh</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>13eh</v>
+      </c>
+      <c r="G13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4939</v>
       </c>
@@ -1097,11 +1212,19 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>13h</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>13h</v>
+      </c>
+      <c r="G14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15821</v>
       </c>
@@ -1111,11 +1234,19 @@
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5544</v>
       </c>
@@ -1125,11 +1256,19 @@
       <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14649</v>
       </c>
@@ -1139,11 +1278,19 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>755106</v>
       </c>
@@ -1153,11 +1300,19 @@
       <c r="C18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1167,11 +1322,19 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>85940</v>
       </c>
@@ -1181,17 +1344,27 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>18(48)</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>216</v>
       </c>
@@ -1201,11 +1374,19 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>18*</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>18*</v>
+      </c>
+      <c r="G21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>188</v>
       </c>
@@ -1215,11 +1396,19 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>36</v>
       </c>
@@ -1229,11 +1418,19 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>18M</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>18M</v>
+      </c>
+      <c r="G23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>31</v>
       </c>
@@ -1243,11 +1440,19 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>18w</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>18w</v>
+      </c>
+      <c r="G24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -1257,11 +1462,19 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>86234</v>
       </c>
@@ -1271,17 +1484,27 @@
       <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>19(48)</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>211</v>
       </c>
@@ -1291,11 +1514,19 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>19f</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>19f</v>
+      </c>
+      <c r="G27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -1305,11 +1536,19 @@
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>1h</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>1h</v>
+      </c>
+      <c r="G28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -1319,11 +1558,19 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>85939</v>
       </c>
@@ -1333,17 +1580,27 @@
       <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>20(48)</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -1353,11 +1610,19 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>20E</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>20E</v>
+      </c>
+      <c r="G31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5248</v>
       </c>
@@ -1367,11 +1632,19 @@
       <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>49161</v>
       </c>
@@ -1381,11 +1654,19 @@
       <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>22A</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>22A</v>
+      </c>
+      <c r="G33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37110</v>
       </c>
@@ -1395,11 +1676,19 @@
       <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>22C</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>22C</v>
+      </c>
+      <c r="G34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6641</v>
       </c>
@@ -1409,11 +1698,19 @@
       <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43</v>
       </c>
@@ -1423,11 +1720,19 @@
       <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>24*</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>24*</v>
+      </c>
+      <c r="G36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>760951</v>
       </c>
@@ -1437,11 +1742,19 @@
       <c r="C37" t="s">
         <v>116</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36862</v>
       </c>
@@ -1451,11 +1764,19 @@
       <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>25*</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>25*</v>
+      </c>
+      <c r="G38" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>33546</v>
       </c>
@@ -1465,11 +1786,19 @@
       <c r="C39" t="s">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>25e</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>25e</v>
+      </c>
+      <c r="G39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>352478</v>
       </c>
@@ -1479,11 +1808,19 @@
       <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>14616</v>
       </c>
@@ -1493,11 +1830,19 @@
       <c r="C41" t="s">
         <v>57</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1507,11 +1852,19 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>26h</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>26h</v>
+      </c>
+      <c r="G42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>23052</v>
       </c>
@@ -1521,11 +1874,19 @@
       <c r="C43" t="s">
         <v>65</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>26w</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>26w</v>
+      </c>
+      <c r="G43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>668868</v>
       </c>
@@ -1535,11 +1896,19 @@
       <c r="C44" t="s">
         <v>108</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>27*</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>27*</v>
+      </c>
+      <c r="G44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>318</v>
       </c>
@@ -1549,11 +1918,19 @@
       <c r="C45" t="s">
         <v>132</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>27f</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>27f</v>
+      </c>
+      <c r="G45" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>290</v>
       </c>
@@ -1563,11 +1940,19 @@
       <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5350</v>
       </c>
@@ -1577,11 +1962,19 @@
       <c r="C47" t="s">
         <v>51</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>288</v>
       </c>
@@ -1591,11 +1984,19 @@
       <c r="C48" t="s">
         <v>29</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>29A</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>29A</v>
+      </c>
+      <c r="G48" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>25283</v>
       </c>
@@ -1605,11 +2006,19 @@
       <c r="C49" t="s">
         <v>68</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>29C</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>29C</v>
+      </c>
+      <c r="G49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1318712</v>
       </c>
@@ -1619,11 +2028,19 @@
       <c r="C50" t="s">
         <v>126</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1387</v>
       </c>
@@ -1633,11 +2050,19 @@
       <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49827</v>
       </c>
@@ -1647,11 +2072,19 @@
       <c r="C52" t="s">
         <v>79</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>32C</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>32C</v>
+      </c>
+      <c r="G52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51404</v>
       </c>
@@ -1661,11 +2094,19 @@
       <c r="C53" t="s">
         <v>81</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>32V</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>32V</v>
+      </c>
+      <c r="G53" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1318575</v>
       </c>
@@ -1675,11 +2116,19 @@
       <c r="C54" t="s">
         <v>125</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>34*</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>34*</v>
+      </c>
+      <c r="G54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>113743</v>
       </c>
@@ -1689,11 +2138,19 @@
       <c r="C55" t="s">
         <v>92</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>696985</v>
       </c>
@@ -1703,11 +2160,19 @@
       <c r="C56" t="s">
         <v>113</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>35M</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>35M</v>
+      </c>
+      <c r="G56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2493</v>
       </c>
@@ -1717,11 +2182,19 @@
       <c r="C57" t="s">
         <v>39</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G57" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>19010</v>
       </c>
@@ -1731,11 +2204,19 @@
       <c r="C58" t="s">
         <v>64</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>39*</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>39*</v>
+      </c>
+      <c r="G58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>761861</v>
       </c>
@@ -1745,11 +2226,19 @@
       <c r="C59" t="s">
         <v>117</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>40*</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>40*</v>
+      </c>
+      <c r="G59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>23441</v>
       </c>
@@ -1759,11 +2248,19 @@
       <c r="C60" t="s">
         <v>67</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3781</v>
       </c>
@@ -1773,11 +2270,19 @@
       <c r="C61" t="s">
         <v>42</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>41*</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>41*</v>
+      </c>
+      <c r="G61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>386</v>
       </c>
@@ -1787,11 +2292,19 @@
       <c r="C62" t="s">
         <v>31</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1388</v>
       </c>
@@ -1801,11 +2314,19 @@
       <c r="C63" t="s">
         <v>38</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>81416</v>
       </c>
@@ -1815,11 +2336,19 @@
       <c r="C64" t="s">
         <v>85</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G64" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>20</v>
       </c>
@@ -1829,11 +2358,19 @@
       <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>194140</v>
       </c>
@@ -1843,17 +2380,27 @@
       <c r="C66" t="s">
         <v>131</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>51(48)</v>
+      </c>
+      <c r="E66">
+        <v>51</v>
+      </c>
+      <c r="F66">
+        <v>48</v>
+      </c>
+      <c r="G66" t="s">
         <v>18</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>18</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>801537</v>
       </c>
@@ -1863,11 +2410,19 @@
       <c r="C67" t="s">
         <v>118</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:E121" si="1">C67</f>
+        <v>46*</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>46*</v>
+      </c>
+      <c r="G67" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1316792</v>
       </c>
@@ -1877,11 +2432,19 @@
       <c r="C68" t="s">
         <v>122</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>46M</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>46M</v>
+      </c>
+      <c r="G68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>38388</v>
       </c>
@@ -1891,11 +2454,19 @@
       <c r="C69" t="s">
         <v>76</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>46t</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>46t</v>
+      </c>
+      <c r="G69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1316708</v>
       </c>
@@ -1905,11 +2476,19 @@
       <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="G70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>186</v>
       </c>
@@ -1919,11 +2498,19 @@
       <c r="C71" t="s">
         <v>23</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>173</v>
       </c>
@@ -1933,17 +2520,27 @@
       <c r="C72" t="s">
         <v>21</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>49(50)</v>
+      </c>
+      <c r="E72">
+        <v>49</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s">
         <v>18</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>18</v>
       </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>470449</v>
       </c>
@@ -1953,11 +2550,19 @@
       <c r="C73" t="s">
         <v>20</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>662440</v>
       </c>
@@ -1967,11 +2572,19 @@
       <c r="C74" t="s">
         <v>104</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>49*</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>49*</v>
+      </c>
+      <c r="G74" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>171</v>
       </c>
@@ -1981,11 +2594,19 @@
       <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>196314</v>
       </c>
@@ -1995,17 +2616,27 @@
       <c r="C76" t="s">
         <v>94</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>50(48)</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>48</v>
+      </c>
+      <c r="G76" t="s">
         <v>143</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>170</v>
       </c>
@@ -2015,11 +2646,19 @@
       <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>50*</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>50*</v>
+      </c>
+      <c r="G77" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>684139</v>
       </c>
@@ -2029,11 +2668,19 @@
       <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G78" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>198</v>
       </c>
@@ -2043,11 +2690,19 @@
       <c r="C79" t="s">
         <v>25</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>50P</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>50P</v>
+      </c>
+      <c r="G79" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>242</v>
       </c>
@@ -2057,11 +2712,19 @@
       <c r="C80" t="s">
         <v>28</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>659342</v>
       </c>
@@ -2071,11 +2734,19 @@
       <c r="C81" t="s">
         <v>101</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="G81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>94459</v>
       </c>
@@ -2085,11 +2756,19 @@
       <c r="C82" t="s">
         <v>90</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>53Ta</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>53Ta</v>
+      </c>
+      <c r="G82" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>56644</v>
       </c>
@@ -2099,11 +2778,19 @@
       <c r="C83" t="s">
         <v>82</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="G83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>684142</v>
       </c>
@@ -2113,11 +2800,19 @@
       <c r="C84" t="s">
         <v>112</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>57Bl</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>57Bl</v>
+      </c>
+      <c r="G84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>655037</v>
       </c>
@@ -2127,11 +2822,19 @@
       <c r="C85" t="s">
         <v>99</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>57C</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>57C</v>
+      </c>
+      <c r="G85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>669813</v>
       </c>
@@ -2141,11 +2844,19 @@
       <c r="C86" t="s">
         <v>109</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>57S</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>57S</v>
+      </c>
+      <c r="G86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>660843</v>
       </c>
@@ -2155,11 +2866,19 @@
       <c r="C87" t="s">
         <v>103</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>57V</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>57V</v>
+      </c>
+      <c r="G87" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>655038</v>
       </c>
@@ -2169,11 +2888,19 @@
       <c r="C88" t="s">
         <v>100</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>57VM</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>57VM</v>
+      </c>
+      <c r="G88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1318215</v>
       </c>
@@ -2183,11 +2910,19 @@
       <c r="C89" t="s">
         <v>123</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G89" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>414</v>
       </c>
@@ -2197,11 +2932,19 @@
       <c r="C90" t="s">
         <v>32</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44851</v>
       </c>
@@ -2211,11 +2954,19 @@
       <c r="C91" t="s">
         <v>77</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G91" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>659821</v>
       </c>
@@ -2225,11 +2976,19 @@
       <c r="C92" t="s">
         <v>102</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>60*</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>60*</v>
+      </c>
+      <c r="G92" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>50417</v>
       </c>
@@ -2239,11 +2998,19 @@
       <c r="C93" t="s">
         <v>80</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>60*Ta</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>60*Ta</v>
+      </c>
+      <c r="G93" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>654842</v>
       </c>
@@ -2253,11 +3020,19 @@
       <c r="C94" t="s">
         <v>97</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>60A</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>60A</v>
+      </c>
+      <c r="G94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>665134</v>
       </c>
@@ -2267,11 +3042,19 @@
       <c r="C95" t="s">
         <v>107</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>60E</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>60E</v>
+      </c>
+      <c r="G95" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>37264</v>
       </c>
@@ -2281,11 +3064,19 @@
       <c r="C96" t="s">
         <v>75</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="G96" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>93391</v>
       </c>
@@ -2295,11 +3086,19 @@
       <c r="C97" t="s">
         <v>89</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>289</v>
       </c>
@@ -2309,11 +3108,19 @@
       <c r="C98" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>66L</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>66L</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>56991</v>
       </c>
@@ -2323,11 +3130,19 @@
       <c r="C99" t="s">
         <v>83</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="G99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>705148</v>
       </c>
@@ -2337,11 +3152,19 @@
       <c r="C100" t="s">
         <v>114</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>67G</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>67G</v>
+      </c>
+      <c r="G100" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1318367</v>
       </c>
@@ -2351,11 +3174,19 @@
       <c r="C101" t="s">
         <v>124</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="G101" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>103542</v>
       </c>
@@ -2365,11 +3196,19 @@
       <c r="C102" t="s">
         <v>91</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G102" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>641956</v>
       </c>
@@ -2379,11 +3218,19 @@
       <c r="C103" t="s">
         <v>96</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>69G</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>69G</v>
+      </c>
+      <c r="G103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>998761</v>
       </c>
@@ -2393,11 +3240,19 @@
       <c r="C104" t="s">
         <v>120</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>70G</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>70G</v>
+      </c>
+      <c r="G104" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>57133</v>
       </c>
@@ -2407,11 +3262,19 @@
       <c r="C105" t="s">
         <v>84</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="G105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>678095</v>
       </c>
@@ -2421,11 +3284,19 @@
       <c r="C106" t="s">
         <v>110</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G106" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>439</v>
       </c>
@@ -2435,11 +3306,19 @@
       <c r="C107" t="s">
         <v>34</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>7a</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>7a</v>
+      </c>
+      <c r="G107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>23329</v>
       </c>
@@ -2449,11 +3328,19 @@
       <c r="C108" t="s">
         <v>66</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>7e</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>7e</v>
+      </c>
+      <c r="G108" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -2463,11 +3350,19 @@
       <c r="C109" t="s">
         <v>2</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>7f</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>7f</v>
+      </c>
+      <c r="G109" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>446</v>
       </c>
@@ -2477,11 +3372,19 @@
       <c r="C110" t="s">
         <v>35</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>7S</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>7S</v>
+      </c>
+      <c r="G110" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>4004</v>
       </c>
@@ -2491,11 +3394,19 @@
       <c r="C111" t="s">
         <v>43</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>8a</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>8a</v>
+      </c>
+      <c r="G111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>4034</v>
       </c>
@@ -2505,11 +3416,19 @@
       <c r="C112" t="s">
         <v>44</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>8b</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>8b</v>
+      </c>
+      <c r="G112" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>4337</v>
       </c>
@@ -2519,11 +3438,19 @@
       <c r="C113" t="s">
         <v>48</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>8d</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>8d</v>
+      </c>
+      <c r="G113" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>15478</v>
       </c>
@@ -2533,11 +3460,19 @@
       <c r="C114" t="s">
         <v>60</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>8e</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>8e</v>
+      </c>
+      <c r="G114" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>16499</v>
       </c>
@@ -2547,11 +3482,19 @@
       <c r="C115" t="s">
         <v>62</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>8f</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>8f</v>
+      </c>
+      <c r="G115" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3977</v>
       </c>
@@ -2561,11 +3504,19 @@
       <c r="C116" t="s">
         <v>46</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>8S</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>8S</v>
+      </c>
+      <c r="G116" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -2575,11 +3526,19 @@
       <c r="C117" t="s">
         <v>4</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>9a</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>9a</v>
+      </c>
+      <c r="G117" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>37111</v>
       </c>
@@ -2589,11 +3548,19 @@
       <c r="C118" t="s">
         <v>4</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>9a</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>9a</v>
+      </c>
+      <c r="G118" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>3164</v>
       </c>
@@ -2603,11 +3570,19 @@
       <c r="C119" t="s">
         <v>40</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>9w</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>9w</v>
+      </c>
+      <c r="G119" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>176</v>
       </c>
@@ -2617,11 +3592,19 @@
       <c r="C120" t="s">
         <v>22</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>AV</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>AV</v>
+      </c>
+      <c r="G120" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>663182</v>
       </c>
@@ -2631,12 +3614,11 @@
       <c r="C121" t="s">
         <v>106</v>
       </c>
-      <c r="D121" t="s">
+      <c r="G121" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>